--- a/climada/engine/test/data/demo_today.xlsx
+++ b/climada/engine/test/data/demo_today.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aznarsig/Documents/Python/climada_python/climada/engine/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{88FBB2A0-87E2-7E4A-9102-8D4434ABFFB5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{569DEC8D-2C9A-FD41-96E2-593CA86BADA9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7180" yWindow="5120" windowWidth="27320" windowHeight="14820" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9860" yWindow="2900" windowWidth="27320" windowHeight="14820" tabRatio="766" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="assets" sheetId="1" r:id="rId1"/>
-    <sheet name="damagefunctions" sheetId="2" r:id="rId2"/>
+    <sheet name="impact_functions" sheetId="2" r:id="rId2"/>
     <sheet name="measures" sheetId="3" r:id="rId3"/>
     <sheet name="discount" sheetId="4" r:id="rId4"/>
     <sheet name="_assets_details" sheetId="8" r:id="rId5"/>
@@ -36,11 +36,44 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>A satisfied Microsoft Office user</author>
     <author>srzdnb</author>
-    <author>A satisfied Microsoft Office user</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{04C6A012-09DE-F442-9FC0-76BF138F66B4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The Damage function ID to link to the asset tab.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Note on the damagefunctions tab: You can read only this tab with climada_damagefunctiuons_read and e.g. display all functions with climada_damagefunctions_plot. Replace existing damagefunctions in an encoded entity with these damagefunctions with climada_damagefunctions_map</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -107,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -174,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -243,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -255,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -268,33 +301,50 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
           </rPr>
-          <t>OPTIONAL
-a free name, only used for annotation. Use only letters,  numbers and spaces, do not start with a letter.</t>
+          <t xml:space="preserve">OPTIONAL
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>a free name, only used for annotation. Use only letters,  numbers and spaces, do not start with a letter.</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
           </rPr>
           <t>VulnCurveID 520</t>
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="A11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -307,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -814,18 +864,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="80">
   <si>
-    <t>Intensity</t>
-  </si>
-  <si>
-    <t>MDD</t>
-  </si>
-  <si>
     <t>MDR</t>
   </si>
   <si>
-    <t>PAA</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -1000,9 +1041,6 @@
     <t>damagefunctions map</t>
   </si>
   <si>
-    <t>DamageFunID</t>
-  </si>
-  <si>
     <t>MDD impact a</t>
   </si>
   <si>
@@ -1018,15 +1056,9 @@
     <t>hazard event set</t>
   </si>
   <si>
-    <t>peril_ID</t>
-  </si>
-  <si>
     <t>TC</t>
   </si>
   <si>
-    <t>Intensity_unit</t>
-  </si>
-  <si>
     <t>m/s</t>
   </si>
   <si>
@@ -1052,6 +1084,24 @@
   </si>
   <si>
     <t>if_TC</t>
+  </si>
+  <si>
+    <t>impact_fun_id</t>
+  </si>
+  <si>
+    <t>intensity</t>
+  </si>
+  <si>
+    <t>mdd</t>
+  </si>
+  <si>
+    <t>paa</t>
+  </si>
+  <si>
+    <t>peril_id</t>
+  </si>
+  <si>
+    <t>intensity_unit</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1115,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1127,6 +1177,28 @@
     <font>
       <sz val="10"/>
       <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1213,7 +1285,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1245,6 +1317,7 @@
     <xf numFmtId="168" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1407,11 +1480,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>damagefunctions!$C$1</c:f>
+              <c:f>impact_functions!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MDD</c:v>
+                  <c:v>mdd</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1441,7 +1514,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>damagefunctions!$B$2:$B$10</c:f>
+              <c:f>impact_functions!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1477,7 +1550,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>damagefunctions!$C$2:$C$10</c:f>
+              <c:f>impact_functions!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1523,11 +1596,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>damagefunctions!$D$1</c:f>
+              <c:f>impact_functions!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PAA</c:v>
+                  <c:v>paa</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1557,7 +1630,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>damagefunctions!$B$2:$B$10</c:f>
+              <c:f>impact_functions!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1593,7 +1666,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>damagefunctions!$D$2:$D$10</c:f>
+              <c:f>impact_functions!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1639,7 +1712,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>damagefunctions!$E$1</c:f>
+              <c:f>impact_functions!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1661,7 +1734,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>damagefunctions!$B$2:$B$10</c:f>
+              <c:f>impact_functions!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1697,7 +1770,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>damagefunctions!$E$2:$E$10</c:f>
+              <c:f>impact_functions!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1996,11 +2069,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>damagefunctions!$C$1</c:f>
+              <c:f>impact_functions!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MDD</c:v>
+                  <c:v>mdd</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2030,7 +2103,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>damagefunctions!$B$11:$B$19</c:f>
+              <c:f>impact_functions!$B$11:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2066,7 +2139,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>damagefunctions!$C$11:$C$19</c:f>
+              <c:f>impact_functions!$C$11:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2112,11 +2185,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>damagefunctions!$D$1</c:f>
+              <c:f>impact_functions!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PAA</c:v>
+                  <c:v>paa</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2146,7 +2219,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>damagefunctions!$B$11:$B$19</c:f>
+              <c:f>impact_functions!$B$11:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2182,7 +2255,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>damagefunctions!$D$11:$D$19</c:f>
+              <c:f>impact_functions!$D$11:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2228,7 +2301,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>damagefunctions!$E$1</c:f>
+              <c:f>impact_functions!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2250,7 +2323,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>damagefunctions!$B$11:$B$19</c:f>
+              <c:f>impact_functions!$B$11:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2286,7 +2359,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>damagefunctions!$E$11:$E$19</c:f>
+              <c:f>impact_functions!$E$11:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2916,7 +2989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2933,25 +3006,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -4214,8 +4287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4228,30 +4301,30 @@
     <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>62</v>
+    <row r="1" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -4272,13 +4345,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -4299,13 +4372,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -4326,13 +4399,13 @@
         <v>9.1799999999999998E-4</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -4353,13 +4426,13 @@
         <v>5.7419999999999997E-3</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -4380,13 +4453,13 @@
         <v>2.1510000000000001E-2</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -4407,13 +4480,13 @@
         <v>6.8021999999999999E-2</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -4434,13 +4507,13 @@
         <v>0.18041399999999999</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -4461,13 +4534,13 @@
         <v>0.41079599999999999</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -4488,13 +4561,13 @@
         <v>0.41079599999999999</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -4515,13 +4588,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -4542,13 +4615,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -4569,13 +4642,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -4596,13 +4669,13 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -4623,13 +4696,13 @@
         <v>0.02</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -4650,13 +4723,13 @@
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -4677,13 +4750,13 @@
         <v>0.18</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -4704,13 +4777,13 @@
         <v>0.4</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -4731,13 +4804,13 @@
         <v>0.4</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -4773,51 +4846,51 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="M1" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C2" s="7">
         <f>_measures_details!B12*3*3*2.1</f>
@@ -4830,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -4845,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -4856,10 +4929,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C3" s="9">
         <f>30000000*4*6*2.4</f>
@@ -4872,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -4887,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -4898,10 +4971,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
       </c>
       <c r="C4" s="7">
         <f>_measures_details!B29*12*1.005</f>
@@ -4915,7 +4988,7 @@
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -4930,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -4941,10 +5014,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" s="7">
         <v>9200000000</v>
@@ -4956,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G5">
         <v>0.75</v>
@@ -4971,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -5003,13 +5076,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -5602,21 +5675,21 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -5686,13 +5759,13 @@
     </row>
     <row r="8" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B8" s="22">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I8">
         <v>2014</v>
@@ -5707,7 +5780,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I9">
         <v>2015</v>
@@ -5722,7 +5795,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B10" s="9">
         <f>SUM(assets!C2:C51)</f>
@@ -5947,12 +6020,12 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -5969,17 +6042,17 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="8">
         <v>0.5</v>
@@ -5987,18 +6060,18 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" s="8">
         <v>0.2</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="18">
         <f>B6*SUM(assets!C2:C51)*_measures_details!B7</f>
@@ -6007,12 +6080,12 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11" s="9">
         <v>4000000</v>
@@ -6020,7 +6093,7 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12" s="18">
         <f>_discounting_sheet!D4</f>
@@ -6035,17 +6108,17 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B16" s="9">
         <v>20000000</v>
@@ -6053,7 +6126,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B17" s="9">
         <v>500000</v>
@@ -6061,7 +6134,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B18" s="9">
         <v>500000</v>
@@ -6069,7 +6142,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B19" s="9">
         <v>400000</v>
@@ -6077,7 +6150,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B20" s="18">
         <f>_discounting_sheet!F4</f>
@@ -6086,17 +6159,17 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -6104,7 +6177,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B25" s="9">
         <v>30000</v>
@@ -6112,7 +6185,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B26" s="12">
         <f>B24^2*B25*2000</f>
@@ -6121,7 +6194,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B27">
         <v>400</v>
@@ -6129,7 +6202,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B28" s="12">
         <f>B25*B27</f>
@@ -6138,7 +6211,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B29" s="18">
         <f>_discounting_sheet!H4</f>
@@ -6173,33 +6246,33 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M3" s="14"/>
     </row>
